--- a/www/terminologies/ASS-A13-TypeEvenement-FluxStandardise.xlsx
+++ b/www/terminologies/ASS-A13-TypeEvenement-FluxStandardise.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -266,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -366,21 +372,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -388,6 +394,14 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -405,87 +419,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>24</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/www/terminologies/ASS-A13-TypeEvenement-FluxStandardise.xlsx
+++ b/www/terminologies/ASS-A13-TypeEvenement-FluxStandardise.xlsx
@@ -105,13 +105,13 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R254-TypeEvenement/FHIR/TRE-R254-TypeEvenement</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R254-TypeEvenement/FHIR/TRE-R254-TypeEvenement|20240329120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R255-FluxStandardise/FHIR/TRE-R255-FluxStandardise</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R255-FluxStandardise/FHIR/TRE-R255-FluxStandardise|20231215120000</t>
   </si>
   <si>
     <t>DOC</t>
